--- a/Excel_Files/Stats_Populations/1.5_cm/827_nm_v.xlsx
+++ b/Excel_Files/Stats_Populations/1.5_cm/827_nm_v.xlsx
@@ -459,28 +459,28 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>0.0003535335571155389</v>
+        <v>0.002269182698153594</v>
       </c>
       <c r="D2">
-        <v>0.0004509451675764041</v>
+        <v>0.002186797137306555</v>
       </c>
       <c r="E2">
-        <v>0.0004009351805927092</v>
+        <v>0.002304233076218594</v>
       </c>
       <c r="F2">
-        <v>0.000367530944305664</v>
+        <v>0.00214979258044395</v>
       </c>
       <c r="G2">
-        <v>0.0002216623686351822</v>
+        <v>0.002059877742638724</v>
       </c>
       <c r="H2">
-        <v>0.0004509451675764041</v>
+        <v>0.002304233076218594</v>
       </c>
       <c r="I2">
-        <v>0.0003799467732531117</v>
+        <v>0.002581206586072419</v>
       </c>
       <c r="J2">
-        <v>0.0005680951038642438</v>
+        <v>0.002401832903291691</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -491,28 +491,28 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>0.0001886173811158162</v>
+        <v>0.001954758353673718</v>
       </c>
       <c r="D3">
-        <v>0.0003950895174608803</v>
+        <v>0.00201450505588533</v>
       </c>
       <c r="E3">
-        <v>0.0002816945254185484</v>
+        <v>0.002069119384808007</v>
       </c>
       <c r="F3">
-        <v>0.000165793341901365</v>
+        <v>0.001843178388168979</v>
       </c>
       <c r="G3">
-        <v>0.0001666561356309106</v>
+        <v>0.001794986983058318</v>
       </c>
       <c r="H3">
-        <v>0.0002762745293445559</v>
+        <v>0.001978527250571195</v>
       </c>
       <c r="I3">
-        <v>0.0002700259226100816</v>
+        <v>0.00209505180787578</v>
       </c>
       <c r="J3">
-        <v>0.0002317899119853782</v>
+        <v>0.002111013568291957</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -523,28 +523,28 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>0.0001152200244758807</v>
+        <v>0.001670245908044045</v>
       </c>
       <c r="D4">
-        <v>0.0002145430674714844</v>
+        <v>0.001855480418646799</v>
       </c>
       <c r="E4">
-        <v>0.0001937847333806751</v>
+        <v>0.00187955901365675</v>
       </c>
       <c r="F4">
-        <v>7.937949318480259E-05</v>
+        <v>0.001449168887799384</v>
       </c>
       <c r="G4">
-        <v>6.713799626776951E-05</v>
+        <v>0.001338642260430704</v>
       </c>
       <c r="H4">
-        <v>0.0001438671939904285</v>
+        <v>0.001747424946772225</v>
       </c>
       <c r="I4">
-        <v>0.0001835344594959819</v>
+        <v>0.001936543799235231</v>
       </c>
       <c r="J4">
-        <v>6.66150980288586E-05</v>
+        <v>0.001365816220406237</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -555,28 +555,28 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>7.806983695813531E-06</v>
+        <v>0.0005109837023184106</v>
       </c>
       <c r="D5">
-        <v>9.640928027841788E-06</v>
+        <v>0.0005646915300310463</v>
       </c>
       <c r="E5">
-        <v>8.820606018899573E-06</v>
+        <v>0.0005441454886654639</v>
       </c>
       <c r="F5">
-        <v>4.684501612757765E-06</v>
+        <v>0.000401838527502973</v>
       </c>
       <c r="G5">
-        <v>3.598233069020202E-06</v>
+        <v>0.0003508558887501877</v>
       </c>
       <c r="H5">
-        <v>5.723918387151156E-06</v>
+        <v>0.0004393440477407212</v>
       </c>
       <c r="I5">
-        <v>1.016925625462418E-05</v>
+        <v>0.0005723276757490218</v>
       </c>
       <c r="J5">
-        <v>5.321864985268614E-06</v>
+        <v>0.0004161442132240139</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -587,28 +587,28 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>4.913041699402684E-06</v>
+        <v>0.0004111098532055578</v>
       </c>
       <c r="D6">
-        <v>5.36054817638837E-06</v>
+        <v>0.0004301924246126893</v>
       </c>
       <c r="E6">
-        <v>4.479672316729688E-06</v>
+        <v>0.0003935984444803024</v>
       </c>
       <c r="F6">
-        <v>2.167047478933069E-06</v>
+        <v>0.0002795128345277746</v>
       </c>
       <c r="G6">
-        <v>2.064929526614993E-06</v>
+        <v>0.0002739697133976065</v>
       </c>
       <c r="H6">
-        <v>2.770920890474034E-06</v>
+        <v>0.0003100850671578785</v>
       </c>
       <c r="I6">
-        <v>5.508727654350113E-06</v>
+        <v>0.000433361000962791</v>
       </c>
       <c r="J6">
-        <v>2.735583219539971E-06</v>
+        <v>0.0003072053941109162</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -619,28 +619,28 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>2.104210235971202E-06</v>
+        <v>0.0002747931978455385</v>
       </c>
       <c r="D7">
-        <v>3.333461428455903E-06</v>
+        <v>0.0003461132542965626</v>
       </c>
       <c r="E7">
-        <v>1.252027938051832E-06</v>
+        <v>0.0002114400315646845</v>
       </c>
       <c r="F7">
-        <v>7.495816482591951E-07</v>
+        <v>0.000169813637153227</v>
       </c>
       <c r="G7">
-        <v>1.02480029382073E-06</v>
+        <v>0.0001904004186368348</v>
       </c>
       <c r="H7">
-        <v>7.495816482591951E-07</v>
+        <v>0.000169813637153227</v>
       </c>
       <c r="I7">
-        <v>3.732724356541283E-06</v>
+        <v>0.0003630530796845279</v>
       </c>
       <c r="J7">
-        <v>9.400862280358854E-07</v>
+        <v>0.0001889517959872442</v>
       </c>
     </row>
   </sheetData>
